--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400919\Documents\GitHub\AppDev05_2016\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Wat heb je gedaan?</t>
   </si>
@@ -53,14 +53,17 @@
     <t>Frédérique Van Wonterghem</t>
   </si>
   <si>
-    <t>Dag 1 Maand 2016</t>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Use cases, beschrijving websitepagina, doornemen cursus Facebook API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +99,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -151,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -159,21 +169,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -217,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -329,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +498,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,65 +509,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="7">
+        <v>42426</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400982\Documents\GitHub\AppDev05_2016\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,30 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudy Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joran Claessens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Strijbos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacha Reyskens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Rudy Mas</t>
+  </si>
+  <si>
+    <t>Joran Claessens</t>
+  </si>
+  <si>
+    <t>Kevin Strijbos</t>
+  </si>
+  <si>
+    <t>Sacha Reyskens</t>
+  </si>
+  <si>
+    <t>Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t>Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t>Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -53,51 +57,41 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
+    <t>GitHub Bekeken</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\/MMM\/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\/mmm\/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -150,95 +144,74 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -297,31 +270,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.1836734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="21"/>
+    <col min="7" max="7" width="32.140625"/>
+    <col min="8" max="9" width="21"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -332,7 +579,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -353,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -364,7 +611,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -375,7 +622,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -390,37 +637,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.1836734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="21"/>
+    <col min="7" max="7" width="32.140625"/>
+    <col min="8" max="9" width="21"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>42426</v>
       </c>
       <c r="B1" s="1"/>
@@ -430,7 +669,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -451,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -462,11 +701,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -477,11 +718,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -500,10 +743,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="171026" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>scope.md geschreven</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
   </si>
   <si>
     <t>Use Case “Eventlijst van standpunt student”
@@ -72,7 +78,7 @@
     <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
   </si>
   <si>
-    <t>Github volledig doorlopen, snap het nu perfect</t>
+    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
   </si>
   <si>
     <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
@@ -81,11 +87,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\/mmm\/yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,9 +191,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -205,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -367,6 +373,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -402,9 +425,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,7 +600,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="21"/>
     <col min="7" max="7" width="32.140625"/>
@@ -568,70 +608,70 @@
     <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -646,11 +686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="21"/>
     <col min="7" max="7" width="32.140625"/>
@@ -658,86 +698,92 @@
     <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7">
         <v>42426</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400982\Documents\GitHub\AppDev05_2016\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171026" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -83,15 +83,21 @@
   <si>
     <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
   </si>
+  <si>
+    <t>Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\/mmm\/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -214,7 +220,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,23 +379,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -425,23 +414,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -600,15 +572,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="21"/>
-    <col min="7" max="7" width="32.140625"/>
+    <col min="7" max="7" width="32.109375"/>
     <col min="8" max="9" width="21"/>
-    <col min="10" max="1025" width="8.5703125"/>
+    <col min="10" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -619,7 +591,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="37.5">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -640,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -651,7 +623,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -662,7 +634,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -686,19 +658,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="21"/>
-    <col min="7" max="7" width="32.140625"/>
+    <col min="7" max="7" width="32.109375"/>
     <col min="8" max="9" width="21"/>
-    <col min="10" max="1025" width="8.5703125"/>
+    <col min="10" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42426</v>
       </c>
@@ -709,7 +681,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="37.5">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -730,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -746,10 +718,12 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -765,10 +739,12 @@
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Documents\GitHub\project-appdev\AppDev05_2016\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t>GitHub bekeken</t>
+  </si>
+  <si>
+    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
   </si>
 </sst>
 </file>
@@ -220,7 +226,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -304,9 +310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -344,7 +350,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,15 +578,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="21"/>
-    <col min="7" max="7" width="32.109375"/>
+    <col min="7" max="7" width="32.140625"/>
     <col min="8" max="9" width="21"/>
-    <col min="10" max="1025" width="8.5546875"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -591,7 +597,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -612,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -623,7 +629,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -634,7 +640,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -659,18 +665,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="21"/>
-    <col min="7" max="7" width="32.109375"/>
+    <col min="7" max="7" width="32.140625"/>
     <col min="8" max="9" width="21"/>
-    <col min="10" max="1025" width="8.5546875"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>42426</v>
       </c>
@@ -681,7 +687,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -702,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -721,9 +727,11 @@
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -742,9 +750,11 @@
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
+    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,30 +26,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudy Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joran Claessens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Strijbos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacha Reyskens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Rudy Mas</t>
+  </si>
+  <si>
+    <t>Joran Claessens</t>
+  </si>
+  <si>
+    <t>Kevin Strijbos</t>
+  </si>
+  <si>
+    <t>Sacha Reyskens</t>
+  </si>
+  <si>
+    <t>Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t>Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t>Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -54,75 +58,62 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope.md geschreven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github volledig doorlopen, snap het nu perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github bekeken, scum template gemaakt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
+    <t>GitHub Bekeken</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>scope.md geschreven</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t>Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t>GitHub bekeken</t>
+  </si>
+  <si>
+    <t>Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
+  </si>
+  <si>
+    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
+  </si>
+  <si>
+    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+  </si>
+  <si>
+    <t>Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/MMM/YY"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -175,95 +166,74 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -322,31 +292,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.2755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.6122448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="21.21875"/>
+    <col min="7" max="7" width="32.5546875"/>
+    <col min="8" max="9" width="21.21875"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -357,7 +601,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -378,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -389,7 +633,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -400,7 +644,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -415,37 +659,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.2755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.6122448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="21.21875"/>
+    <col min="7" max="7" width="32.5546875"/>
+    <col min="8" max="9" width="21.21875"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42426</v>
       </c>
       <c r="B1" s="1"/>
@@ -455,7 +691,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -476,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -499,7 +735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -522,7 +758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -543,10 +779,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -554,26 +789,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.2755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.6122448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="21.21875"/>
+    <col min="7" max="7" width="32.5546875"/>
+    <col min="8" max="9" width="21.21875"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42431</v>
       </c>
       <c r="B1" s="1"/>
@@ -583,7 +815,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -604,29 +836,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -641,12 +881,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400982\Documents\GitHub\AppDev05_2016\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use case controle op reviews/organisaties, beschrijving ado.net en sql, beschrijving van beide pagina's. </t>
+  </si>
+  <si>
+    <t>Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
   </si>
 </sst>
 </file>
@@ -207,9 +213,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -228,9 +231,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,9 +320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +360,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -426,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,78 +588,78 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="21.21875"/>
-    <col min="7" max="7" width="32.5546875"/>
-    <col min="8" max="9" width="21.21875"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="21.28515625"/>
+    <col min="7" max="7" width="32.5703125"/>
+    <col min="8" max="9" width="21.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -672,108 +678,108 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="21.21875"/>
-    <col min="7" max="7" width="32.5546875"/>
-    <col min="8" max="9" width="21.21875"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="21.28515625"/>
+    <col min="7" max="7" width="32.5703125"/>
+    <col min="8" max="9" width="21.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42426</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -793,89 +799,93 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="21.21875"/>
-    <col min="7" max="7" width="32.5546875"/>
-    <col min="8" max="9" width="21.21875"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="21.28515625"/>
+    <col min="7" max="7" width="32.5703125"/>
+    <col min="8" max="9" width="21.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42431</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400919\Documents\GitHub\AppDev05_2016\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
+    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,30 +26,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudy Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joran Claessens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Strijbos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacha Reyskens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Rudy Mas</t>
+  </si>
+  <si>
+    <t>Joran Claessens</t>
+  </si>
+  <si>
+    <t>Kevin Strijbos</t>
+  </si>
+  <si>
+    <t>Sacha Reyskens</t>
+  </si>
+  <si>
+    <t>Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t>Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t>Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -54,46 +58,46 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope.md geschreven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github volledig doorlopen, snap het nu perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github bekeken, scum template gemaakt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
+    <t>GitHub Bekeken</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>scope.md geschreven</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t>Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t>GitHub bekeken</t>
+  </si>
+  <si>
+    <t>Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case: Evenementenlijst + Diagram
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
+  </si>
+  <si>
+    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
+  </si>
+  <si>
+    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+  </si>
+  <si>
+    <t>use case: Evenementenlijst + Diagram
 Beschrijving pagina: Evenementenlijst
 Beschrijving taal: Bootstrap</t>
   </si>
@@ -101,49 +105,39 @@
     <t xml:space="preserve">use case controle op reviews/organisaties, beschrijving ado.net en sql, beschrijving van beide pagina's. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use cases verwerken en uniform maken
+    <t>Use cases verwerken en uniform maken
 Docx bestanden omzetten naar MD bestanden</t>
   </si>
   <si>
-    <t xml:space="preserve">contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+    <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
+  </si>
+  <si>
+    <t>Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
+  </si>
+  <si>
+    <t>Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
+  </si>
+  <si>
+    <t>scope.md aanpassen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\/MMM\/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\/mmm\/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -196,95 +190,74 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -343,31 +316,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col min="1" max="6" width="21.6640625"/>
+    <col min="7" max="7" width="33"/>
+    <col min="8" max="9" width="21.6640625"/>
+    <col min="10" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +625,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -399,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -410,7 +657,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -421,7 +668,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -436,37 +683,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col min="1" max="6" width="21.6640625"/>
+    <col min="7" max="7" width="33"/>
+    <col min="8" max="9" width="21.6640625"/>
+    <col min="10" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42426</v>
       </c>
       <c r="B1" s="1"/>
@@ -476,7 +715,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -497,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -520,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -543,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -564,10 +803,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -575,26 +813,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col min="1" max="6" width="21.6640625"/>
+    <col min="7" max="7" width="33"/>
+    <col min="8" max="9" width="21.6640625"/>
+    <col min="10" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42431</v>
       </c>
       <c r="B1" s="1"/>
@@ -604,7 +839,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -625,14 +860,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
@@ -644,14 +881,16 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -663,14 +902,16 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -680,12 +921,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docx bestanden omgezet naar md bestanden</t>
   </si>
 </sst>
 </file>
@@ -120,7 +124,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\/MMM\/YY"/>
+    <numFmt numFmtId="165" formatCode="D/MMM/YY"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -361,10 +365,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,10 +463,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,16 +585,16 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,6 +674,106 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>42433</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
+    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
+    <sheet name="04-03-2016" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,30 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudy Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joran Claessens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Strijbos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacha Reyskens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Rudy Mas</t>
+  </si>
+  <si>
+    <t>Joran Claessens</t>
+  </si>
+  <si>
+    <t>Kevin Strijbos</t>
+  </si>
+  <si>
+    <t>Sacha Reyskens</t>
+  </si>
+  <si>
+    <t>Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t>Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t>Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -55,105 +59,86 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope.md geschreven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github volledig doorlopen, snap het nu perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github bekeken, scum template gemaakt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
+    <t>GitHub Bekeken</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>scope.md geschreven</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t>Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t>GitHub bekeken</t>
+  </si>
+  <si>
+    <t>Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case: Evenementenlijst + Diagram
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
+  </si>
+  <si>
+    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
+  </si>
+  <si>
+    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+  </si>
+  <si>
+    <t>use case: Evenementenlijst + Diagram
 Beschrijving pagina: Evenementenlijst
 Beschrijving taal: Bootstrap</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
   </si>
   <si>
     <t xml:space="preserve">use case controle op reviews/organisaties, beschrijving ado.net en sql, beschrijving van beide pagina's. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use cases verwerken en uniform maken
+    <t>Use cases verwerken en uniform maken
 Docx bestanden omzetten naar MD bestanden</t>
   </si>
   <si>
-    <t xml:space="preserve">scope.md aanpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docx bestanden omgezet naar md.</t>
+    <t>scope.md aanpassen</t>
+  </si>
+  <si>
+    <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
+  </si>
+  <si>
+    <t>Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
+  </si>
+  <si>
+    <t>Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t>docx bestanden omgezet naar md.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/MMM/YY"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -206,95 +191,74 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -353,31 +317,304 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="22"/>
+    <col min="7" max="7" width="33.44140625"/>
+    <col min="8" max="9" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +625,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -409,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -420,7 +657,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -431,7 +668,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -446,37 +683,28 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="22"/>
+    <col min="7" max="7" width="33.44140625"/>
+    <col min="8" max="9" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42426</v>
       </c>
       <c r="B1" s="1"/>
@@ -486,7 +714,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -507,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -530,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -553,7 +781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -574,10 +802,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -585,26 +812,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="22"/>
+    <col min="7" max="7" width="33.44140625"/>
+    <col min="8" max="9" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42431</v>
       </c>
       <c r="B1" s="1"/>
@@ -614,7 +837,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -635,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -656,7 +879,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -677,7 +900,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -689,44 +912,37 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="22"/>
+    <col min="7" max="7" width="33.44140625"/>
+    <col min="8" max="9" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42433</v>
       </c>
       <c r="B1" s="1"/>
@@ -736,7 +952,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -757,7 +973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -770,7 +986,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -781,7 +997,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -796,12 +1012,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Documents\GitHub\project-appdev\AppDev05_2016\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>docx bestanden omgezet naar md.</t>
+  </si>
+  <si>
+    <t>Afmaken Facebook API + bundelen paginabeschrijvingen</t>
   </si>
 </sst>
 </file>
@@ -232,9 +235,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -253,9 +253,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,9 +342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,7 +382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,77 +610,77 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="22"/>
-    <col min="7" max="7" width="33.44140625"/>
+    <col min="7" max="7" width="33.42578125"/>
     <col min="8" max="9" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -693,110 +696,110 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="22"/>
-    <col min="7" max="7" width="33.44140625"/>
+    <col min="7" max="7" width="33.42578125"/>
     <col min="8" max="9" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42426</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -816,106 +819,110 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="22"/>
-    <col min="7" max="7" width="33.44140625"/>
+    <col min="7" max="7" width="33.42578125"/>
     <col min="8" max="9" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42431</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -934,79 +941,79 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="22"/>
-    <col min="7" max="7" width="33.44140625"/>
+    <col min="7" max="7" width="33.42578125"/>
     <col min="8" max="9" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42433</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,9 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">

--- a/scrum/dailyscrum.xlsx
+++ b/scrum/dailyscrum.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
+    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
+    <sheet name="04-03-2016" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,30 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudy Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joran Claessens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Strijbos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacha Reyskens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Rudy Mas</t>
+  </si>
+  <si>
+    <t>Joran Claessens</t>
+  </si>
+  <si>
+    <t>Kevin Strijbos</t>
+  </si>
+  <si>
+    <t>Sacha Reyskens</t>
+  </si>
+  <si>
+    <t>Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t>Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t>Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -55,109 +59,93 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope.md geschreven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github volledig doorlopen, snap het nu perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github bekeken, scum template gemaakt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
+    <t>GitHub Bekeken</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>scope.md geschreven</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t>Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t>GitHub bekeken</t>
+  </si>
+  <si>
+    <t>Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case: Evenementenlijst + Diagram
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
+  </si>
+  <si>
+    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
+  </si>
+  <si>
+    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+  </si>
+  <si>
+    <t>use case: Evenementenlijst + Diagram
 Beschrijving pagina: Evenementenlijst
 Beschrijving taal: Bootstrap</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
   </si>
   <si>
     <t xml:space="preserve">use case controle op reviews/organisaties, beschrijving ado.net en sql, beschrijving van beide pagina's. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use cases verwerken en uniform maken
+    <t>Use cases verwerken en uniform maken
 Docx bestanden omzetten naar MD bestanden</t>
   </si>
   <si>
-    <t xml:space="preserve">scope.md aanpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afmaken Facebook API + bundelen paginabeschrijvingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docx bestanden omgezet naar md.
+    <t>scope.md aanpassen</t>
+  </si>
+  <si>
+    <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
+  </si>
+  <si>
+    <t>Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
+  </si>
+  <si>
+    <t>Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t>Afmaken Facebook API + bundelen paginabeschrijvingen</t>
+  </si>
+  <si>
+    <t>docx bestanden omgezet naar md.
 SUC nagekeken en samengevoegd in 1 bestand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\/MMM\/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\/mmm\/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -210,95 +198,74 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -357,31 +324,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="22.33203125"/>
+    <col min="7" max="7" width="34"/>
+    <col min="8" max="9" width="22.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +633,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -413,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -424,7 +665,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -435,7 +676,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -450,37 +691,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="22.33203125"/>
+    <col min="7" max="7" width="34"/>
+    <col min="8" max="9" width="22.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42426</v>
       </c>
       <c r="B1" s="1"/>
@@ -490,7 +723,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -511,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -534,7 +767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -557,7 +790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -578,10 +811,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -589,26 +821,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="22.33203125"/>
+    <col min="7" max="7" width="34"/>
+    <col min="8" max="9" width="22.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42431</v>
       </c>
       <c r="B1" s="1"/>
@@ -618,7 +847,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -639,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -662,7 +891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -685,7 +914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,37 +935,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="22.33203125"/>
+    <col min="7" max="7" width="34"/>
+    <col min="8" max="9" width="22.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42433</v>
       </c>
       <c r="B1" s="1"/>
@@ -746,7 +967,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -767,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -777,12 +998,14 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -793,7 +1016,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -808,12 +1031,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>